--- a/Chi Square.xlsx
+++ b/Chi Square.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwilbrink/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwilbrink/Desktop/F1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Video" sheetId="1" r:id="rId1"/>
     <sheet name="Chi-square graph" sheetId="4" r:id="rId2"/>
     <sheet name="XCode" sheetId="2" r:id="rId3"/>
-    <sheet name="Video (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Blad2" sheetId="6" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="5" r:id="rId5"/>
+    <sheet name="Video (2)" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>#</t>
   </si>
@@ -60,8 +62,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -104,12 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -164,7 +170,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -848,11 +853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184895488"/>
-        <c:axId val="1184897264"/>
+        <c:axId val="-1376516352"/>
+        <c:axId val="-1376514576"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1184895488"/>
+        <c:axId val="-1376516352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +900,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184897264"/>
+        <c:crossAx val="-1376514576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -904,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1184897264"/>
+        <c:axId val="-1376514576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +959,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184895488"/>
+        <c:crossAx val="-1376516352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2075,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3018,11 +3023,11 @@
         <v>12.999999999999986</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="3">CHIDIST(B68,$B$1)</f>
+        <f t="shared" ref="C68:C103" si="3">CHIDIST(B68,$B$1)</f>
         <v>2.3378768103563961E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D131" si="4">(1)/((2^($B$1/2))*(EXP(GAMMALN($B$1/2))))*(B68^($B$1/2-1))*(EXP((-1)*(B68)/2))</f>
+        <f t="shared" ref="D68:D103" si="4">(1)/((2^($B$1/2))*(EXP(GAMMALN($B$1/2))))*(B68^($B$1/2-1))*(EXP((-1)*(B68)/2))</f>
         <v>9.3710813327611102E-3</v>
       </c>
     </row>
@@ -3524,10 +3529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3538,7 +3543,7 @@
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3551,182 +3556,347 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f>$B$13</f>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C2">
-        <v>8217</v>
+        <v>8367</v>
       </c>
       <c r="D2" s="3">
         <f>((C2-B2)^2)/B2</f>
-        <v>1.6240133333332996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.13466730665386692</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>$B$13</f>
+        <v>8333.5</v>
+      </c>
+      <c r="H2">
+        <v>8316</v>
+      </c>
+      <c r="I2" s="3">
+        <f>((H2-G2)^2)/G2</f>
+        <v>3.6749265014699703E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" si="0">$B$13</f>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C3">
-        <v>8370</v>
+        <v>8296</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="1">((C3-B3)^2)/B3</f>
-        <v>0.16133333333334404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.16874662506749866</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="2">$B$13</f>
+        <v>8333.5</v>
+      </c>
+      <c r="H3">
+        <v>8397</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I11" si="3">((H3-G3)^2)/G3</f>
+        <v>0.48386032279354413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C4">
-        <v>8408</v>
+        <v>8413</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>0.66901333333335522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.75841483170336599</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H4">
+        <v>8501</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3666826663466729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C5">
-        <v>8424</v>
+        <v>8286</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>0.98645333333335972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.27074458510829785</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H5">
+        <v>8247</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89785204295914078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C6">
-        <v>8323</v>
+        <v>8309</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>1.2813333333330328E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.2028559428811423E-2</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H6">
+        <v>8218</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6007979840403193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C7">
-        <v>8258</v>
+        <v>8330</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>0.68101333333331149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.4699706005879883E-3</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H7">
+        <v>8321</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>1.874962500749985E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C8" s="2">
         <v>40</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>8253.525333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8253.6919961600761</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="3"/>
+        <v>8253.6919961600761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C9" s="2">
         <v>30</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>8273.4413333333305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8273.607997840043</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>8273.607997840043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C10" s="2">
         <v>38</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>8257.5066133333312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8257.6732765344696</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>8257.6732765344696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C11" s="2">
         <v>22</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>8289.3914133333328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8289.5580788384232</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>8333.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>8289.5580788384232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>SUM(C2:C7)*(1/COUNTA(A2:A7))</f>
-        <v>8333.3333333333321</v>
+        <v>8333.5</v>
       </c>
       <c r="C13">
         <f>SUM(C2:C7)</f>
-        <v>50000</v>
+        <v>50001</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(D2:D7)</f>
-        <v>4.1346400000000001</v>
+        <v>1.4060718785624291</v>
+      </c>
+      <c r="G13">
+        <f>SUM(H2:H7)*(1/COUNTA(F2:F7))</f>
+        <v>8333.3333333333321</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H2:H7)</f>
+        <v>50000</v>
+      </c>
+      <c r="I13" s="6">
+        <f>SUM(I2:I7)</f>
+        <v>6.4046919061618768</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -3738,6 +3908,226 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>$B$13</f>
+        <v>8333.5</v>
+      </c>
+      <c r="C2">
+        <v>8316</v>
+      </c>
+      <c r="D2" s="5">
+        <f>((C2-B2)^2)/B2</f>
+        <v>3.6749265014699703E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">$B$13</f>
+        <v>8333.5</v>
+      </c>
+      <c r="C3">
+        <v>8397</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D11" si="1">((C3-B3)^2)/B3</f>
+        <v>0.48386032279354413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C4">
+        <v>8502</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>3.4070018599628007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C5">
+        <v>8247</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89785204295914078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C6">
+        <v>8218</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6007979840403193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C7">
+        <v>8321</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>1.874962500749985E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>8253.6919961600761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>8273.607997840043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>8257.6732765344696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>8333.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>8289.5580788384232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>SUM(C2:C7)*(1/COUNTA(A2:A7))</f>
+        <v>8333.5</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C2:C7)</f>
+        <v>50001</v>
+      </c>
+      <c r="D13" s="6">
+        <f>SUM(D2:D7)</f>
+        <v>6.4450110997780046</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
